--- a/CIs.xlsx
+++ b/CIs.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT-HUB\SDPM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A31741-E66F-4840-A9E3-AEB43541FC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E77E4DF-D730-461E-B685-859B4ED1011A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STATUS ACCOUNTING CIs" sheetId="1" r:id="rId1"/>
     <sheet name="CIS" sheetId="2" r:id="rId2"/>
+    <sheet name="Posibles ubicaciones" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="bibliotecas">'Posibles ubicaciones'!$C$6:$C$9</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Nombre del CI</t>
   </si>
@@ -137,6 +141,27 @@
   </si>
   <si>
     <t>Transition states diagrams review (optional)-IT1</t>
+  </si>
+  <si>
+    <t>Propietario (la persona que lo ha creado)</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posibles Ubicaciones </t>
+  </si>
+  <si>
+    <t>Biblioteca de trabajo</t>
+  </si>
+  <si>
+    <t>Biblioteca de integración</t>
+  </si>
+  <si>
+    <t>Biblioteca de soporte</t>
+  </si>
+  <si>
+    <t>Biblioteca de producción</t>
   </si>
 </sst>
 </file>
@@ -214,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -230,21 +255,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -531,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H16"/>
+  <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,9 +566,11 @@
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -566,112 +589,149 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4" xr:uid="{D4686510-B9AF-4230-BCA4-27FC14ED3136}">
+      <formula1>bibliotecas</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -963,4 +1023,47 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C2632-2EE7-4F98-A0C2-137B4CC875E8}">
+  <dimension ref="C5:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CIs.xlsx
+++ b/CIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT-HUB\SDPM-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E77E4DF-D730-461E-B685-859B4ED1011A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B80C8D0-E4C5-43B1-A54E-7E1418F49761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,21 @@
   <definedNames>
     <definedName name="bibliotecas">'Posibles ubicaciones'!$C$6:$C$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -239,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,11 +266,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,7 +575,7 @@
     <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="34" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="30" x14ac:dyDescent="0.25">
@@ -592,7 +600,7 @@
       <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -740,7 +748,7 @@
           <x14:formula1>
             <xm:f>CIS!$D$5:$D$35</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>C4:C16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -753,7 +761,7 @@
   <dimension ref="C4:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D35"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1038,7 @@
   <dimension ref="C5:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
